--- a/Data/CashDrop.xlsx
+++ b/Data/CashDrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="543">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,406 +40,1609 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010509720</t>
-  </si>
-  <si>
-    <t>12010510414</t>
-  </si>
-  <si>
-    <t>12010500323</t>
-  </si>
-  <si>
-    <t>12010124696</t>
-  </si>
-  <si>
-    <t>12010145225</t>
-  </si>
-  <si>
-    <t>12010110187</t>
-  </si>
-  <si>
-    <t>12010500870</t>
-  </si>
-  <si>
-    <t>12010507668</t>
-  </si>
-  <si>
-    <t>12010503370</t>
-  </si>
-  <si>
-    <t>12010125022</t>
-  </si>
-  <si>
-    <t>12010508835</t>
-  </si>
-  <si>
-    <t>12010132310</t>
-  </si>
-  <si>
-    <t>12010511510</t>
-  </si>
-  <si>
-    <t>90000019420</t>
-  </si>
-  <si>
-    <t>12010506869</t>
-  </si>
-  <si>
-    <t>12010124872</t>
-  </si>
-  <si>
-    <t>12010145660</t>
-  </si>
-  <si>
-    <t>12010510526</t>
-  </si>
-  <si>
-    <t>12010507608</t>
-  </si>
-  <si>
-    <t>12010509298</t>
-  </si>
-  <si>
-    <t>12010509951</t>
-  </si>
-  <si>
-    <t>12010507152</t>
-  </si>
-  <si>
-    <t>12010500374</t>
-  </si>
-  <si>
-    <t>1201051124</t>
-  </si>
-  <si>
-    <t>12010121200</t>
-  </si>
-  <si>
-    <t>12010131494</t>
-  </si>
-  <si>
-    <t>12010505074</t>
-  </si>
-  <si>
-    <t>90000030153</t>
+    <t>4401900438</t>
+  </si>
+  <si>
+    <t>44031100809</t>
+  </si>
+  <si>
+    <t>4401900390</t>
+  </si>
+  <si>
+    <t>44031199102</t>
+  </si>
+  <si>
+    <t>44019001840</t>
+  </si>
+  <si>
+    <t>44019001115</t>
+  </si>
+  <si>
+    <t>44019001559</t>
+  </si>
+  <si>
+    <t>4401900131</t>
+  </si>
+  <si>
+    <t>90000004772</t>
+  </si>
+  <si>
+    <t>90000015979</t>
+  </si>
+  <si>
+    <t>90000010362</t>
+  </si>
+  <si>
+    <t>90000021606</t>
+  </si>
+  <si>
+    <t>44037801306</t>
+  </si>
+  <si>
+    <t>44019000375</t>
+  </si>
+  <si>
+    <t>44019001149</t>
+  </si>
+  <si>
+    <t>44019000835</t>
+  </si>
+  <si>
+    <t>4401900167</t>
+  </si>
+  <si>
+    <t>90000002621</t>
+  </si>
+  <si>
+    <t>44031103048</t>
+  </si>
+  <si>
+    <t>90000031822</t>
+  </si>
+  <si>
+    <t>44019002300</t>
+  </si>
+  <si>
+    <t>44031000064</t>
+  </si>
+  <si>
+    <t>44031000062</t>
+  </si>
+  <si>
+    <t>90000005204</t>
+  </si>
+  <si>
+    <t>44019001701</t>
+  </si>
+  <si>
+    <t>4401900383</t>
+  </si>
+  <si>
+    <t>44019001902</t>
+  </si>
+  <si>
+    <t>90000013843</t>
+  </si>
+  <si>
+    <t>44031101488</t>
+  </si>
+  <si>
+    <t>44031106432</t>
+  </si>
+  <si>
+    <t>90000043114</t>
+  </si>
+  <si>
+    <t>44031100393</t>
+  </si>
+  <si>
+    <t>44031101642</t>
+  </si>
+  <si>
+    <t>44019001367</t>
+  </si>
+  <si>
+    <t>44037800201</t>
+  </si>
+  <si>
+    <t>90000008298</t>
+  </si>
+  <si>
+    <t>44019003380</t>
+  </si>
+  <si>
+    <t>90000017664</t>
+  </si>
+  <si>
+    <t>90000013841</t>
+  </si>
+  <si>
+    <t>44031000125</t>
+  </si>
+  <si>
+    <t>90000029814</t>
+  </si>
+  <si>
+    <t>4401900232</t>
+  </si>
+  <si>
+    <t>44031000068</t>
+  </si>
+  <si>
+    <t>44031109970</t>
+  </si>
+  <si>
+    <t>44019003298</t>
+  </si>
+  <si>
+    <t>44019000313</t>
+  </si>
+  <si>
+    <t>44037801153</t>
+  </si>
+  <si>
+    <t>44019000092</t>
+  </si>
+  <si>
+    <t>90000044542</t>
+  </si>
+  <si>
+    <t>90000040055</t>
+  </si>
+  <si>
+    <t>44037799691</t>
+  </si>
+  <si>
+    <t>90000036354</t>
+  </si>
+  <si>
+    <t>44019003467</t>
+  </si>
+  <si>
+    <t>44019000609</t>
+  </si>
+  <si>
+    <t>44037801816</t>
+  </si>
+  <si>
+    <t>44031000058</t>
+  </si>
+  <si>
+    <t>44019004745</t>
+  </si>
+  <si>
+    <t>44019002125</t>
+  </si>
+  <si>
+    <t>44037799756</t>
+  </si>
+  <si>
+    <t>90000044641</t>
+  </si>
+  <si>
+    <t>44019001038</t>
+  </si>
+  <si>
+    <t>90000021950</t>
+  </si>
+  <si>
+    <t>44019001011</t>
+  </si>
+  <si>
+    <t>44031100329</t>
+  </si>
+  <si>
+    <t>44037800961</t>
+  </si>
+  <si>
+    <t>44019001634</t>
+  </si>
+  <si>
+    <t>44019007241</t>
+  </si>
+  <si>
+    <t>44031101809</t>
+  </si>
+  <si>
+    <t>44019000871</t>
+  </si>
+  <si>
+    <t>4401900032</t>
+  </si>
+  <si>
+    <t>4401900038</t>
+  </si>
+  <si>
+    <t>44037801149</t>
+  </si>
+  <si>
+    <t>44019000620</t>
+  </si>
+  <si>
+    <t>44031101852</t>
+  </si>
+  <si>
+    <t>4401900993</t>
+  </si>
+  <si>
+    <t>44019001861</t>
+  </si>
+  <si>
+    <t>44019001670</t>
+  </si>
+  <si>
+    <t>90000015467</t>
+  </si>
+  <si>
+    <t>44019001819</t>
+  </si>
+  <si>
+    <t>44019003471</t>
+  </si>
+  <si>
+    <t>44037801772</t>
+  </si>
+  <si>
+    <t>44037801638</t>
+  </si>
+  <si>
+    <t>90000037779</t>
+  </si>
+  <si>
+    <t>90000006479</t>
+  </si>
+  <si>
+    <t>44031109948</t>
+  </si>
+  <si>
+    <t>44019008751</t>
+  </si>
+  <si>
+    <t>44037799516</t>
+  </si>
+  <si>
+    <t>44031100450</t>
+  </si>
+  <si>
+    <t>44019002732</t>
+  </si>
+  <si>
+    <t>44019003104</t>
+  </si>
+  <si>
+    <t>44031106984</t>
+  </si>
+  <si>
+    <t>90000014246</t>
+  </si>
+  <si>
+    <t>44019000756</t>
+  </si>
+  <si>
+    <t>90000026282</t>
+  </si>
+  <si>
+    <t>44019000239</t>
+  </si>
+  <si>
+    <t>44037801798</t>
+  </si>
+  <si>
+    <t>44031100436</t>
+  </si>
+  <si>
+    <t>44019002415</t>
+  </si>
+  <si>
+    <t>44019000071</t>
+  </si>
+  <si>
+    <t>44090000032409</t>
+  </si>
+  <si>
+    <t>44019002530</t>
+  </si>
+  <si>
+    <t>44019001215</t>
+  </si>
+  <si>
+    <t>90000015982</t>
+  </si>
+  <si>
+    <t>44037801432</t>
+  </si>
+  <si>
+    <t>44019001520</t>
+  </si>
+  <si>
+    <t>44019000708</t>
+  </si>
+  <si>
+    <t>44031100382</t>
+  </si>
+  <si>
+    <t>44031100386</t>
+  </si>
+  <si>
+    <t>44019008728</t>
+  </si>
+  <si>
+    <t>44019001674</t>
+  </si>
+  <si>
+    <t>90000022561</t>
+  </si>
+  <si>
+    <t>4401900418</t>
+  </si>
+  <si>
+    <t>90000016776</t>
+  </si>
+  <si>
+    <t>44019004678</t>
+  </si>
+  <si>
+    <t>44019008744</t>
+  </si>
+  <si>
+    <t>44031009253</t>
+  </si>
+  <si>
+    <t>44031107499</t>
+  </si>
+  <si>
+    <t>4401900106</t>
+  </si>
+  <si>
+    <t>44019001593</t>
+  </si>
+  <si>
+    <t>44037848372</t>
+  </si>
+  <si>
+    <t>44019003435</t>
+  </si>
+  <si>
+    <t>44019003296</t>
+  </si>
+  <si>
+    <t>Prottyasha Pharmacy</t>
+  </si>
+  <si>
+    <t>Ali Medical Store</t>
+  </si>
+  <si>
+    <t>Com Tech Drug And Surgical</t>
+  </si>
+  <si>
+    <t>Ureca Pharmacy</t>
+  </si>
+  <si>
+    <t>Mehedi Drug House</t>
+  </si>
+  <si>
+    <t>Kushol Pharmacy</t>
+  </si>
+  <si>
+    <t>Nipa Drug House</t>
+  </si>
+  <si>
+    <t>Khan Medicine House</t>
+  </si>
+  <si>
+    <t>Biswas Medicine &amp; Surgical</t>
+  </si>
+  <si>
+    <t>Kamal Drug House</t>
+  </si>
+  <si>
+    <t>Younus Medicine Corner</t>
+  </si>
+  <si>
+    <t>Khan Pharmacy</t>
+  </si>
+  <si>
+    <t>Joy Ma Pharmacy</t>
+  </si>
+  <si>
+    <t>Allahar Dan Pharmacy</t>
+  </si>
+  <si>
+    <t>Bondhon Mdical Hall</t>
+  </si>
+  <si>
+    <t>B N Pharmacy</t>
+  </si>
+  <si>
+    <t>Maya Pharmacy</t>
+  </si>
+  <si>
+    <t>Gazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Habib Pharmacy</t>
+  </si>
+  <si>
+    <t>Shakib Pharmacy</t>
+  </si>
+  <si>
+    <t>Liton Medical Center</t>
+  </si>
+  <si>
+    <t>Janakallyan Pharmacy</t>
+  </si>
+  <si>
+    <t>Mollah Medicine Mart</t>
+  </si>
+  <si>
+    <t>Kazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Shatabdi Medical</t>
+  </si>
+  <si>
+    <t>Rezia Pharmacy</t>
+  </si>
+  <si>
+    <t>Rabi Pharmacy</t>
+  </si>
+  <si>
+    <t>Khaza Medical</t>
+  </si>
+  <si>
+    <t>Ghosh Medicine Mart</t>
   </si>
   <si>
     <t>Bismillah Pharmacy</t>
   </si>
   <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Shiraj Pharmacy  Babu</t>
-  </si>
-  <si>
-    <t>Faisal Medicine Shop</t>
-  </si>
-  <si>
-    <t>Zaki Medical Hall</t>
-  </si>
-  <si>
-    <t>Good Luck Pharma</t>
-  </si>
-  <si>
-    <t>Mayer Doa Pharmacy</t>
-  </si>
-  <si>
-    <t>Ibn Sina Medical College</t>
-  </si>
-  <si>
-    <t>Sumaiya Drug House</t>
-  </si>
-  <si>
-    <t>Azim Pharmacy</t>
-  </si>
-  <si>
-    <t>Taj Pharmacy</t>
-  </si>
-  <si>
-    <t>Macca Pharmacy</t>
-  </si>
-  <si>
-    <t>Sawkat Medicall Hall</t>
-  </si>
-  <si>
-    <t>Medi Pharma  Old Aushad Bichit</t>
-  </si>
-  <si>
-    <t>Medi Pharma</t>
-  </si>
-  <si>
-    <t>Mirpur General Hospital &amp; Diag</t>
-  </si>
-  <si>
-    <t>Allahar dan Pharmacy</t>
-  </si>
-  <si>
-    <t>Health Care Pharmacy</t>
-  </si>
-  <si>
-    <t>Mirpur Pharma   3</t>
-  </si>
-  <si>
-    <t>Jannat Pharma</t>
-  </si>
-  <si>
-    <t>Kornofuli Pharmacy</t>
-  </si>
-  <si>
-    <t>Murad Sergical</t>
-  </si>
-  <si>
-    <t>Mahmudi Pharmacy</t>
-  </si>
-  <si>
-    <t>Nesar Pharmacy</t>
-  </si>
-  <si>
-    <t>Al Shefa Medical Hall</t>
-  </si>
-  <si>
-    <t>A.R.Pharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 5, Borobag,Mirpur  02                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balur Mat,Mirpur 12,Dhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senpara Near Khan Pharma ,Mirpur 10,Mirpur                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasantak Bazar,Dhaka Cantonment,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashemer More, Ahamed Nagor, Mirpur-1                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 2, Ring Road,Shyamoli,Dhaka                              </t>
-  </si>
-  <si>
-    <t>House No 34, Tinshed Colony,  Infront of Rakib Ph,Mirpur 13,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 5, Borobag,Girza Road,Mirpur  2,Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1 B, Kallyanpur Bus Stand,Dhaka                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bikrampur Plaza, Plot # 35,under Islami Bank                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block#C,mirpur6,Pollobi,Dhaka-1216.                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shyamoli,Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhaka Shishu Hospital Gate,Shaymoli,Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mizan Tower,Kallanpur,Mirpur-1                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouniabad ,Block C,Mirpur 11,Dhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 B, Borobag,Mirpur   2,Dhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sewden Plaza,Mirpur   2                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House No -1,Road-4/5,Pallabi , Mirpur,Dhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namapara,Manikdhi,Dhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B 133, Eastwrn Houssing,BNSB Building, Mirpur-12            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 C Uttar Pirerbag,Mirpur   1,Dhaka                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32/2 Borobag Mirpur 2 Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">340,Senpara,Right Side of Raha Pharmacy ,Mirpur 10          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur,Plot  10, Mirpur 10,Dhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">844, Kazi Para Bus Stand,Kazi Para,Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 10 Madrasa Road,Joint Quarter, Md Pur,Dhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block   B,Road 12,HouseNo 41,Near Water Pamp                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur-1,BNSBGate,Dhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-684892     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685003     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-684548     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685625     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685310     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685688     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685800     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685733     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686017     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685874     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686426     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686356     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686262     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685888     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685870     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685892     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686174     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686416     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686267     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685969     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685973     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686011     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686417     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685890     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685865     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686203     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686101     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-685985     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686273     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686447     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686078     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686082     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-686383     </t>
-  </si>
-  <si>
-    <t>13 Oct 2020</t>
+    <t>Nahar Medicine &amp; Sohel Surgica</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Asia Pharmacy</t>
+  </si>
+  <si>
+    <t>Saha Pharmacy</t>
+  </si>
+  <si>
+    <t>Morol Medical Hall</t>
+  </si>
+  <si>
+    <t>Tamim Pharmacy</t>
+  </si>
+  <si>
+    <t>Nilufa Pharmacy</t>
+  </si>
+  <si>
+    <t>Fardin Pharmacy</t>
+  </si>
+  <si>
+    <t>Swapno Drug &amp; Surgical House</t>
+  </si>
+  <si>
+    <t>Belal Pharmacy</t>
+  </si>
+  <si>
+    <t>Sneha Pharmacy</t>
+  </si>
+  <si>
+    <t>Jalil Drug House</t>
+  </si>
+  <si>
+    <t>Hira Medical Hall</t>
+  </si>
+  <si>
+    <t>Raihan Pharmacy</t>
+  </si>
+  <si>
+    <t>Shadhin Medical</t>
+  </si>
+  <si>
+    <t>Salam Medical Hall</t>
+  </si>
+  <si>
+    <t>Aysha Pharmacy</t>
+  </si>
+  <si>
+    <t>Aushadh Bitan</t>
+  </si>
+  <si>
+    <t>B.M Clinic</t>
+  </si>
+  <si>
+    <t>Haque Pharmacy</t>
+  </si>
+  <si>
+    <t>Ma Moni Pharmacy</t>
+  </si>
+  <si>
+    <t>Shimul Drug House</t>
+  </si>
+  <si>
+    <t>Joy Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Rayhan Medical Store</t>
+  </si>
+  <si>
+    <t>Ma Pharmacy</t>
+  </si>
+  <si>
+    <t>Satkhira Pharmacy</t>
+  </si>
+  <si>
+    <t>Paul Medical</t>
+  </si>
+  <si>
+    <t>K Ali Pharmacy</t>
+  </si>
+  <si>
+    <t>Nagor Pvt. Hospital</t>
+  </si>
+  <si>
+    <t>Mou Mita Pharmacy</t>
+  </si>
+  <si>
+    <t>Janani Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Pharmacy</t>
+  </si>
+  <si>
+    <t>J H Pharmacy</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Rajib Drug House</t>
+  </si>
+  <si>
+    <t>New Shaikh Pharmacy</t>
+  </si>
+  <si>
+    <t>Ser Ali</t>
+  </si>
+  <si>
+    <t>Mayer Doa</t>
+  </si>
+  <si>
+    <t>Ayub Medical Hall</t>
+  </si>
+  <si>
+    <t>Rehena Pharmacy</t>
+  </si>
+  <si>
+    <t>Nazrul Pharmacy</t>
+  </si>
+  <si>
+    <t>Roy Pharmacy</t>
+  </si>
+  <si>
+    <t>Asma Drug House</t>
+  </si>
+  <si>
+    <t>Z R Pharma</t>
+  </si>
+  <si>
+    <t>Sheikh Pharmacy</t>
+  </si>
+  <si>
+    <t>Rishan Pharmacy</t>
+  </si>
+  <si>
+    <t>ZUBAYER PHARMACY</t>
+  </si>
+  <si>
+    <t>Mithu Pharmacy</t>
+  </si>
+  <si>
+    <t>Munni Medicine Centre</t>
+  </si>
+  <si>
+    <t>Shimul Medical Hall</t>
+  </si>
+  <si>
+    <t>Kamola Pharmacy</t>
+  </si>
+  <si>
+    <t>Khushi Pharmacy</t>
+  </si>
+  <si>
+    <t>Shamima Clinic</t>
+  </si>
+  <si>
+    <t>Hosneara Pharmacy</t>
+  </si>
+  <si>
+    <t>Mohiuddin Pharmacy</t>
+  </si>
+  <si>
+    <t>Nazmul Medical Hall</t>
+  </si>
+  <si>
+    <t>Saifullah Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah Medical House</t>
+  </si>
+  <si>
+    <t>Biswas Drug House</t>
+  </si>
+  <si>
+    <t>Rahat Pharmacy</t>
+  </si>
+  <si>
+    <t>Salsabil Pharmacy</t>
+  </si>
+  <si>
+    <t>Ashraf Pharmacy</t>
+  </si>
+  <si>
+    <t>Shahed Pharmacy</t>
+  </si>
+  <si>
+    <t>Moriam Pharmacy</t>
+  </si>
+  <si>
+    <t>Ma Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Deloar Hossen</t>
+  </si>
+  <si>
+    <t>Arman Pharmacy &amp; Dental Care</t>
+  </si>
+  <si>
+    <t>Anika Pharmacy</t>
+  </si>
+  <si>
+    <t>Kabiratna Pharmacy</t>
+  </si>
+  <si>
+    <t>Mofiz Doctorkhana</t>
+  </si>
+  <si>
+    <t>Sonali Pharmacy</t>
+  </si>
+  <si>
+    <t>Khatib Pharmacy</t>
+  </si>
+  <si>
+    <t>Sadia Pharmacy</t>
+  </si>
+  <si>
+    <t>Jamuna Pharmacy</t>
+  </si>
+  <si>
+    <t>A Islam Pharmacy</t>
+  </si>
+  <si>
+    <t>Fatema Medicine House</t>
+  </si>
+  <si>
+    <t>Kalpona Pharmacy</t>
+  </si>
+  <si>
+    <t>Moinuddin Pharmacy</t>
+  </si>
+  <si>
+    <t>Mamun Pharmacy</t>
+  </si>
+  <si>
+    <t>Tanvir Medical Hall</t>
+  </si>
+  <si>
+    <t>Sweety Pharmacy</t>
+  </si>
+  <si>
+    <t>Patoary Pharmacy</t>
+  </si>
+  <si>
+    <t>Lipi Drug House</t>
+  </si>
+  <si>
+    <t>ASMA KAMAL PHARMACY</t>
+  </si>
+  <si>
+    <t>Rayhan Pharmacy</t>
+  </si>
+  <si>
+    <t>Nitul Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobra Bazar Narail                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana Road Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Lohagara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Road Monirampur Bazar Jesore                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 No, Punak Market,Jail Road,Jessore                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Bazar,Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road,Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shishu Hospital Gate,Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kholishkhali Patkelghata Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Lohagara Narail                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail Road Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bango Bazar Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barinagor Bazar,Satmaile                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadamtola Shayamnagor                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akbarer More Main Stand Kotchadpur,Jhinaidah                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bango Bazar, Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noornagar Shamnagar Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Shayamnagar Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate,Daratana,Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pularhat Bazar Chanchara Jesore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolagachi Pazia Kashobpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gohata Road,Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligonj Bazar Satkhira                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gar Komarpur Protapnagor Shamnagor                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHC gate,Laxmipasha,Lohagora                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Shyamnagar Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratanpur Bazar Shaymnagar Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banga Bazar Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonshipur Bazar, Shyamnagar                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">syed Imran Ali Market,Manikgonj Bazar,Lohagara              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Mohespur Jhenaidah                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C D Bazar,Lohagora                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni Mor Kaligonj Road Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCDS Market,Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bango Bazar Jesore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadomtala Bazar Kadomtala Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navaron Bazar Sarsha Jessore                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhikorgacha Bazar Jhikorgacha Jessore                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raypur Bazar,Jhawdanga                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathorghata Road,Jhawdanga,Satkhira                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soygoria Bazar Satkhira                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCDS Bhabon,Jashore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M K Road Jessore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourasova Mor Moheshpur Jhenaidah                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batar Bazar (Near Godara)Ashashuni,Satkhira                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhikorgacha Road Chowgacha Jessore                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G K Road Jessore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fultola More Kaligonj Satkhira                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bango Bondhu Market, Shayamnagor,Satkhira                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupgang Bazar Narail                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponak Market,Jail Road,Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupganj Bazar, Narail                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligonj Satkhira                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assasuni Bazar Satkhira                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajgonj Bazar Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Sonali Bank Kotchandpur                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadomtola Kaligonj Satkhira                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupdia Bazar Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirumpur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akdia Bazar Narail                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyamnagor Hospital Gate Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Stand Kotchandpur Jhenaidah                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashtola Kaligonj Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosptal Gate, Narail                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupgonj Bazar Narail Jessore                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Beltola Jessore                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khataltola Parkhajura Monirampur Jessore                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Old Islamia Hospital Chowgacha                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorerhat Kaligonj Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goaldanga Bazar Ashasuni                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital road,Keshobpur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monsur Sarder Garej,Shyamnagor                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongsipur Shyamnagar Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullar More,Budhata                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowabeki Symnagor Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pazarkhali Bazar Narail                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Chowgacha Jessore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taltola Krishnonagar Shyamnagar                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noornagor Bazar,Shyamnagor                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bou Bazar,Akshora Anulia,Assasuni                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongshipur Bazar,Shyamnagar                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monsoor Sarder Garage Shayamnagar Satkhira                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantapara Moheshpur Jhenaidah 01714730664                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Koatchandpur Moheshpur                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatiantola Bazar Bagharpara Jessore                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkhajura Bazar Rajgonj Monirampur                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laxipasha Bus Stand Lohagara Narail Mob:No: 01918 048737    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakla Ferighat,Monirampur,Jessore                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parulia Satkhira Khulna                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pazia Bazar, Keshobpur,Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalilpur Bazar Moheshpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Shyamnagar Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahuria Bazar Lohagara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keshobpur Bazar Jessore                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarapur, Gobra,Narail                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garibshah Road Near Fatima Hospital Jessore                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohajan Bazar,Lohagara,Narail                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabdalpur Bazar Kotchandpur Jhenaidah                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moheshpur Bazar Moheshpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goaldanga Bazar Assashuni Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paytoli Bazar Budhata Satkhira                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daratana Jessore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Bazar Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADOMTOLA BZAER SHYAMNAGOR SATKHIRA                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kancha Bazar Monirampur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowrastha Narail                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS76                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS105                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS77                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS28                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-164315     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-366840     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-367001     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385823     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-385830     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-450510     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459961     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-471591     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-472084     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-472497     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-473638     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474488     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474686     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-475065     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477011     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476676     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477190     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476957     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477425     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477498     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478309     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478661     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478653     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478284     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478766     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479159     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479318     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479645     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480107     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479337     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480102     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480062     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479703     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479286     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479637     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480056     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479406     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480192     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480516     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480201     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480197     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480592     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480446     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480529     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480495     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480531     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480268     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480532     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479837     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480249     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480724     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481209     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480661     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481305     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481367     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481394     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480979     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480856     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481105     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481287     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480707     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480920     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480924     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480949     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481185     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481246     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480800     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480676     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481205     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480793     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480997     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481175     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481061     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481154     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481301     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481286     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480693     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480732     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480996     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480496     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481153     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480847     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480894     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481201     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480986     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481397     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481118     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480973     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480756     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480769     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480605     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480922     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480960     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480577     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480967     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480765     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480812     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481124     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480738     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480744     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481064     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480734     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480945     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481387     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480627     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481150     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481121     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481029     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481091     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480638     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480822     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480774     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481311     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481068     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480983     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480692     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481279     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481348     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481379     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-481033     </t>
+  </si>
+  <si>
+    <t>18 Aug 2018</t>
+  </si>
+  <si>
+    <t>16 Feb 2020</t>
+  </si>
+  <si>
+    <t>17 Feb 2020</t>
+  </si>
+  <si>
+    <t>29 Mar 2020</t>
+  </si>
+  <si>
+    <t>19 Aug 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>11 Sep 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
+  </si>
+  <si>
+    <t>30 Sep 2020</t>
+  </si>
+  <si>
+    <t>02 Oct 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>07 Oct 2020</t>
+  </si>
+  <si>
+    <t>11 Oct 2020</t>
+  </si>
+  <si>
+    <t>12 Oct 2020</t>
   </si>
   <si>
     <t>14 Oct 2020</t>
   </si>
   <si>
     <t>15 Oct 2020</t>
+  </si>
+  <si>
+    <t>16 Oct 2020</t>
+  </si>
+  <si>
+    <t>17 Oct 2020</t>
+  </si>
+  <si>
+    <t>18 Oct 2020</t>
+  </si>
+  <si>
+    <t>19 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -797,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,25 +2052,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>521</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>797</v>
       </c>
       <c r="I2">
-        <v>2393.17</v>
+        <v>33.06</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -878,25 +2081,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>522</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="I3">
-        <v>1000.88</v>
+        <v>8400.98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -907,25 +2110,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="I4">
-        <v>589.64</v>
+        <v>568.67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -936,25 +2139,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>524</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I5">
-        <v>4149.78</v>
+        <v>4319.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -962,28 +2165,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>524</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I6">
-        <v>1659.63</v>
+        <v>2181.46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -991,28 +2194,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>524</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>823.72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1020,28 +2223,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>525</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>739.24</v>
+        <v>17556.41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1049,28 +2252,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>526</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I9">
-        <v>531.14</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1078,28 +2281,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>527</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <v>15500</v>
+        <v>8136.66</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1107,28 +2310,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>528</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>12697.76</v>
+        <v>1882.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1136,28 +2339,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>529</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>8102.55</v>
+        <v>10669.1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1165,28 +2368,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>530</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>7478.74</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1194,28 +2397,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>531</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>5344.64</v>
+        <v>4692.66</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1226,25 +2429,25 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>532</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>3924.57</v>
+        <v>1469.77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1255,25 +2458,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>533</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16">
-        <v>3660.03</v>
+        <v>700.47</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1284,25 +2487,25 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>534</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>3211.86</v>
+        <v>30852.9</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1313,25 +2516,25 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>534</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>2500.03</v>
+        <v>665.0599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1339,28 +2542,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>535</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>2137.81</v>
+        <v>6406.33</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1368,28 +2571,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>371</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>535</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I20">
-        <v>1675.33</v>
+        <v>3749.78</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1397,28 +2600,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>413</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>1622.98</v>
+        <v>9898.219999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1426,28 +2629,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>1610.6</v>
+        <v>1615.03</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1455,28 +2658,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>1596.76</v>
+        <v>858.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1484,28 +2687,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>1535.71</v>
+        <v>335.08</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1513,28 +2716,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>1260</v>
+        <v>7990.72</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1542,28 +2745,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>1225.06</v>
+        <v>3424.94</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1571,28 +2774,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>1197.5</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1600,25 +2803,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>1000</v>
@@ -1629,28 +2832,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>538</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>897.71</v>
+        <v>1528.44</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1658,28 +2861,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>422</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>539</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>750</v>
+        <v>1753.58</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1687,28 +2890,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>539</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>616.04</v>
+        <v>1249.8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1716,28 +2919,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>528.03</v>
+        <v>8294.879999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1745,28 +2948,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>425</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>500</v>
+        <v>4481.22</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1774,28 +2977,2754 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G34" t="s">
+        <v>540</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>4199.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" t="s">
+        <v>540</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>4000.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" t="s">
+        <v>540</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>3258.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" t="s">
+        <v>429</v>
+      </c>
+      <c r="G37" t="s">
+        <v>540</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>2447.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F38" t="s">
+        <v>430</v>
+      </c>
+      <c r="G38" t="s">
+        <v>540</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F39" t="s">
+        <v>431</v>
+      </c>
+      <c r="G39" t="s">
+        <v>540</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" t="s">
+        <v>432</v>
+      </c>
+      <c r="G40" t="s">
+        <v>540</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>788.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F41" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" t="s">
+        <v>365</v>
+      </c>
+      <c r="F42" t="s">
+        <v>434</v>
+      </c>
+      <c r="G42" t="s">
+        <v>540</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>300.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" t="s">
+        <v>435</v>
+      </c>
+      <c r="G43" t="s">
+        <v>541</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>13756.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" t="s">
+        <v>383</v>
+      </c>
+      <c r="F44" t="s">
+        <v>436</v>
+      </c>
+      <c r="G44" t="s">
+        <v>541</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5911.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" t="s">
+        <v>437</v>
+      </c>
+      <c r="G45" t="s">
+        <v>541</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>4703.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" t="s">
+        <v>372</v>
+      </c>
+      <c r="F46" t="s">
+        <v>438</v>
+      </c>
+      <c r="G46" t="s">
+        <v>541</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>4197.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" t="s">
+        <v>439</v>
+      </c>
+      <c r="G47" t="s">
+        <v>541</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>3804.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" t="s">
+        <v>541</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3754.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" t="s">
+        <v>441</v>
+      </c>
+      <c r="G49" t="s">
+        <v>541</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>3000.06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" t="s">
+        <v>385</v>
+      </c>
+      <c r="F50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>541</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" t="s">
+        <v>386</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>541</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>1832.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>372</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>541</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>1745.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>541</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>1413.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>541</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>1355.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>541</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" t="s">
+        <v>371</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>542</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>38268.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" t="s">
+        <v>449</v>
+      </c>
+      <c r="G57" t="s">
+        <v>542</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>22750.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" t="s">
+        <v>362</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>542</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>22397.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" t="s">
+        <v>382</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>542</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" t="s">
+        <v>542</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>9857.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" t="s">
+        <v>453</v>
+      </c>
+      <c r="G61" t="s">
+        <v>542</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>9274.129999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" t="s">
+        <v>454</v>
+      </c>
+      <c r="G62" t="s">
+        <v>542</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>6600.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" t="s">
+        <v>379</v>
+      </c>
+      <c r="F63" t="s">
+        <v>455</v>
+      </c>
+      <c r="G63" t="s">
+        <v>542</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>6400.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" t="s">
+        <v>542</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>6241.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" t="s">
+        <v>380</v>
+      </c>
+      <c r="F65" t="s">
+        <v>457</v>
+      </c>
+      <c r="G65" t="s">
+        <v>542</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" t="s">
+        <v>360</v>
+      </c>
+      <c r="F66" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" t="s">
+        <v>542</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>5812.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>364</v>
+      </c>
+      <c r="F67" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" t="s">
+        <v>542</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>5597.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" t="s">
+        <v>360</v>
+      </c>
+      <c r="F68" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" t="s">
+        <v>542</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" t="s">
+        <v>378</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>542</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>4320.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" t="s">
+        <v>389</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>542</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>4288.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" t="s">
+        <v>366</v>
+      </c>
+      <c r="F71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G71" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" t="s">
+        <v>374</v>
+      </c>
+      <c r="F72" t="s">
+        <v>464</v>
+      </c>
+      <c r="G72" t="s">
+        <v>542</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>3890.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" t="s">
+        <v>542</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>3527.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" t="s">
+        <v>542</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>3500.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" t="s">
+        <v>542</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" t="s">
+        <v>360</v>
+      </c>
+      <c r="F76" t="s">
+        <v>468</v>
+      </c>
+      <c r="G76" t="s">
+        <v>542</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>3101.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>380</v>
+      </c>
+      <c r="F77" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" t="s">
+        <v>542</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>2965.87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" t="s">
+        <v>470</v>
+      </c>
+      <c r="G78" t="s">
+        <v>542</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" t="s">
+        <v>542</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>2875.39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" t="s">
+        <v>317</v>
+      </c>
+      <c r="E80" t="s">
+        <v>360</v>
+      </c>
+      <c r="F80" t="s">
+        <v>472</v>
+      </c>
+      <c r="G80" t="s">
+        <v>542</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>2530.09</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81" t="s">
+        <v>360</v>
+      </c>
+      <c r="F81" t="s">
+        <v>473</v>
+      </c>
+      <c r="G81" t="s">
+        <v>542</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>2500.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" t="s">
+        <v>367</v>
+      </c>
+      <c r="F82" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" t="s">
+        <v>542</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>2500.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" t="s">
+        <v>319</v>
+      </c>
+      <c r="E83" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" t="s">
+        <v>475</v>
+      </c>
+      <c r="G83" t="s">
+        <v>542</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>2499.96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" t="s">
+        <v>366</v>
+      </c>
+      <c r="F84" t="s">
+        <v>476</v>
+      </c>
+      <c r="G84" t="s">
+        <v>542</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>2189.71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>321</v>
+      </c>
+      <c r="E85" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" t="s">
+        <v>477</v>
+      </c>
+      <c r="G85" t="s">
+        <v>542</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" t="s">
+        <v>322</v>
+      </c>
+      <c r="E86" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" t="s">
+        <v>478</v>
+      </c>
+      <c r="G86" t="s">
+        <v>542</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>323</v>
+      </c>
+      <c r="E87" t="s">
+        <v>389</v>
+      </c>
+      <c r="F87" t="s">
+        <v>479</v>
+      </c>
+      <c r="G87" t="s">
+        <v>542</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88" t="s">
+        <v>480</v>
+      </c>
+      <c r="G88" t="s">
+        <v>542</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1742.46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>380</v>
+      </c>
+      <c r="F89" t="s">
+        <v>481</v>
+      </c>
+      <c r="G89" t="s">
+        <v>542</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>1718.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" t="s">
+        <v>380</v>
+      </c>
+      <c r="F90" t="s">
+        <v>482</v>
+      </c>
+      <c r="G90" t="s">
+        <v>542</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
+      <c r="F91" t="s">
+        <v>483</v>
+      </c>
+      <c r="G91" t="s">
+        <v>542</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1527.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" t="s">
+        <v>375</v>
+      </c>
+      <c r="F92" t="s">
+        <v>484</v>
+      </c>
+      <c r="G92" t="s">
+        <v>542</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>1524.83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" t="s">
+        <v>542</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1509.54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" t="s">
+        <v>391</v>
+      </c>
+      <c r="F94" t="s">
+        <v>486</v>
+      </c>
+      <c r="G94" t="s">
+        <v>542</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>1500.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" t="s">
+        <v>388</v>
+      </c>
+      <c r="F95" t="s">
+        <v>487</v>
+      </c>
+      <c r="G95" t="s">
+        <v>542</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1500.02</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>331</v>
+      </c>
+      <c r="E96" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96" t="s">
+        <v>488</v>
+      </c>
+      <c r="G96" t="s">
+        <v>542</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1400.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" t="s">
+        <v>332</v>
+      </c>
+      <c r="E97" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" t="s">
+        <v>489</v>
+      </c>
+      <c r="G97" t="s">
+        <v>542</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>1361.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" t="s">
+        <v>388</v>
+      </c>
+      <c r="F98" t="s">
+        <v>490</v>
+      </c>
+      <c r="G98" t="s">
+        <v>542</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>1319.28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>389</v>
+      </c>
+      <c r="F99" t="s">
+        <v>491</v>
+      </c>
+      <c r="G99" t="s">
+        <v>542</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>1318.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-      <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>394.13</v>
+      <c r="C100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" t="s">
+        <v>492</v>
+      </c>
+      <c r="G100" t="s">
+        <v>542</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>1305.46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>380</v>
+      </c>
+      <c r="F101" t="s">
+        <v>493</v>
+      </c>
+      <c r="G101" t="s">
+        <v>542</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>1230.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" t="s">
+        <v>335</v>
+      </c>
+      <c r="E102" t="s">
+        <v>380</v>
+      </c>
+      <c r="F102" t="s">
+        <v>494</v>
+      </c>
+      <c r="G102" t="s">
+        <v>542</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1225.94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" t="s">
+        <v>336</v>
+      </c>
+      <c r="E103" t="s">
+        <v>382</v>
+      </c>
+      <c r="F103" t="s">
+        <v>495</v>
+      </c>
+      <c r="G103" t="s">
+        <v>542</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" t="s">
+        <v>374</v>
+      </c>
+      <c r="F104" t="s">
+        <v>496</v>
+      </c>
+      <c r="G104" t="s">
+        <v>542</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>1187.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" t="s">
+        <v>338</v>
+      </c>
+      <c r="E105" t="s">
+        <v>392</v>
+      </c>
+      <c r="F105" t="s">
+        <v>497</v>
+      </c>
+      <c r="G105" t="s">
+        <v>542</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>1156.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" t="s">
+        <v>339</v>
+      </c>
+      <c r="E106" t="s">
+        <v>366</v>
+      </c>
+      <c r="F106" t="s">
+        <v>498</v>
+      </c>
+      <c r="G106" t="s">
+        <v>542</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" t="s">
+        <v>340</v>
+      </c>
+      <c r="E107" t="s">
+        <v>365</v>
+      </c>
+      <c r="F107" t="s">
+        <v>499</v>
+      </c>
+      <c r="G107" t="s">
+        <v>542</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>1100.66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" t="s">
+        <v>366</v>
+      </c>
+      <c r="F108" t="s">
+        <v>500</v>
+      </c>
+      <c r="G108" t="s">
+        <v>542</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>1058.72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" t="s">
+        <v>342</v>
+      </c>
+      <c r="E109" t="s">
+        <v>393</v>
+      </c>
+      <c r="F109" t="s">
+        <v>501</v>
+      </c>
+      <c r="G109" t="s">
+        <v>542</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>1000.52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" t="s">
+        <v>343</v>
+      </c>
+      <c r="E110" t="s">
+        <v>377</v>
+      </c>
+      <c r="F110" t="s">
+        <v>502</v>
+      </c>
+      <c r="G110" t="s">
+        <v>542</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>986.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" t="s">
+        <v>382</v>
+      </c>
+      <c r="F111" t="s">
+        <v>503</v>
+      </c>
+      <c r="G111" t="s">
+        <v>542</v>
+      </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>897.67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" t="s">
+        <v>373</v>
+      </c>
+      <c r="F112" t="s">
+        <v>504</v>
+      </c>
+      <c r="G112" t="s">
+        <v>542</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
+        <v>880.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113" t="s">
+        <v>380</v>
+      </c>
+      <c r="F113" t="s">
+        <v>505</v>
+      </c>
+      <c r="G113" t="s">
+        <v>542</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <v>871.27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114" t="s">
+        <v>378</v>
+      </c>
+      <c r="F114" t="s">
+        <v>506</v>
+      </c>
+      <c r="G114" t="s">
+        <v>542</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>860.1799999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" t="s">
+        <v>507</v>
+      </c>
+      <c r="G115" t="s">
+        <v>542</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>347</v>
+      </c>
+      <c r="E116" t="s">
+        <v>390</v>
+      </c>
+      <c r="F116" t="s">
+        <v>508</v>
+      </c>
+      <c r="G116" t="s">
+        <v>542</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>800.6799999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117" t="s">
+        <v>360</v>
+      </c>
+      <c r="F117" t="s">
+        <v>509</v>
+      </c>
+      <c r="G117" t="s">
+        <v>542</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>800.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s">
+        <v>349</v>
+      </c>
+      <c r="E118" t="s">
+        <v>362</v>
+      </c>
+      <c r="F118" t="s">
+        <v>510</v>
+      </c>
+      <c r="G118" t="s">
+        <v>542</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>788.52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" t="s">
+        <v>350</v>
+      </c>
+      <c r="E119" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" t="s">
+        <v>511</v>
+      </c>
+      <c r="G119" t="s">
+        <v>542</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>351</v>
+      </c>
+      <c r="E120" t="s">
+        <v>374</v>
+      </c>
+      <c r="F120" t="s">
+        <v>512</v>
+      </c>
+      <c r="G120" t="s">
+        <v>542</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>739.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121" t="s">
+        <v>382</v>
+      </c>
+      <c r="F121" t="s">
+        <v>513</v>
+      </c>
+      <c r="G121" t="s">
+        <v>542</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" t="s">
+        <v>389</v>
+      </c>
+      <c r="F122" t="s">
+        <v>514</v>
+      </c>
+      <c r="G122" t="s">
+        <v>542</v>
+      </c>
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" t="s">
+        <v>354</v>
+      </c>
+      <c r="E123" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" t="s">
+        <v>515</v>
+      </c>
+      <c r="G123" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>616.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" t="s">
+        <v>516</v>
+      </c>
+      <c r="G124" t="s">
+        <v>542</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>600.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" t="s">
+        <v>367</v>
+      </c>
+      <c r="F125" t="s">
+        <v>517</v>
+      </c>
+      <c r="G125" t="s">
+        <v>542</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>500.47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" t="s">
+        <v>373</v>
+      </c>
+      <c r="F126" t="s">
+        <v>518</v>
+      </c>
+      <c r="G126" t="s">
+        <v>542</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>440.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" t="s">
+        <v>358</v>
+      </c>
+      <c r="E127" t="s">
+        <v>367</v>
+      </c>
+      <c r="F127" t="s">
+        <v>519</v>
+      </c>
+      <c r="G127" t="s">
+        <v>542</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>422.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" t="s">
+        <v>359</v>
+      </c>
+      <c r="E128" t="s">
+        <v>391</v>
+      </c>
+      <c r="F128" t="s">
+        <v>520</v>
+      </c>
+      <c r="G128" t="s">
+        <v>542</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CashDrop.xlsx
+++ b/Data/CashDrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="496">
   <si>
     <t>Cust ID</t>
   </si>
@@ -40,925 +40,1438 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010506136</t>
-  </si>
-  <si>
-    <t>12010146695</t>
-  </si>
-  <si>
-    <t>12010130133</t>
-  </si>
-  <si>
-    <t>90000030855</t>
-  </si>
-  <si>
-    <t>12010509979</t>
-  </si>
-  <si>
-    <t>12010121302</t>
-  </si>
-  <si>
-    <t>12010511132</t>
-  </si>
-  <si>
-    <t>12010510125</t>
-  </si>
-  <si>
-    <t>90000021395</t>
-  </si>
-  <si>
-    <t>12010503226</t>
-  </si>
-  <si>
-    <t>12010145119</t>
-  </si>
-  <si>
-    <t>90000040534</t>
-  </si>
-  <si>
-    <t>12010500696</t>
-  </si>
-  <si>
-    <t>12010503632</t>
-  </si>
-  <si>
-    <t>90000030252</t>
-  </si>
-  <si>
-    <t>12010146188</t>
-  </si>
-  <si>
-    <t>12013138206</t>
-  </si>
-  <si>
-    <t>12010510533</t>
-  </si>
-  <si>
-    <t>12010509395</t>
-  </si>
-  <si>
-    <t>12010507619</t>
-  </si>
-  <si>
-    <t>90000004254</t>
-  </si>
-  <si>
-    <t>12010146761</t>
-  </si>
-  <si>
-    <t>12010125177</t>
-  </si>
-  <si>
-    <t>12010508653</t>
-  </si>
-  <si>
-    <t>12010112129</t>
-  </si>
-  <si>
-    <t>12010113610</t>
-  </si>
-  <si>
-    <t>90000022082</t>
-  </si>
-  <si>
-    <t>90000014698</t>
-  </si>
-  <si>
-    <t>12010511288</t>
-  </si>
-  <si>
-    <t>12010146523</t>
-  </si>
-  <si>
-    <t>90000013521</t>
-  </si>
-  <si>
-    <t>90000039631</t>
-  </si>
-  <si>
-    <t>12010505333</t>
-  </si>
-  <si>
-    <t>90000034038</t>
-  </si>
-  <si>
-    <t>90000016084</t>
-  </si>
-  <si>
-    <t>12010503559</t>
-  </si>
-  <si>
-    <t>12010506538</t>
-  </si>
-  <si>
-    <t>90000008566</t>
-  </si>
-  <si>
-    <t>12010507898</t>
-  </si>
-  <si>
-    <t>12010144529</t>
-  </si>
-  <si>
-    <t>12010505450</t>
-  </si>
-  <si>
-    <t>12010508719</t>
-  </si>
-  <si>
-    <t>12010508505</t>
-  </si>
-  <si>
-    <t>12010505207</t>
-  </si>
-  <si>
-    <t>12010500467</t>
-  </si>
-  <si>
-    <t>12010511213</t>
-  </si>
-  <si>
-    <t>12010508950</t>
-  </si>
-  <si>
-    <t>12010509179</t>
-  </si>
-  <si>
-    <t>90000018476</t>
-  </si>
-  <si>
-    <t>12010503716</t>
-  </si>
-  <si>
-    <t>90000015191</t>
-  </si>
-  <si>
-    <t>12010510261</t>
-  </si>
-  <si>
-    <t>12010509787</t>
-  </si>
-  <si>
-    <t>12010144603</t>
-  </si>
-  <si>
-    <t>12010125248</t>
-  </si>
-  <si>
-    <t>12010508365</t>
-  </si>
-  <si>
-    <t>1201500936</t>
-  </si>
-  <si>
-    <t>12010507119</t>
-  </si>
-  <si>
-    <t>90000024168</t>
-  </si>
-  <si>
-    <t>90000041624</t>
-  </si>
-  <si>
-    <t>12010508996</t>
-  </si>
-  <si>
-    <t>12010501258</t>
-  </si>
-  <si>
-    <t>12010144558</t>
-  </si>
-  <si>
-    <t>12010503600</t>
-  </si>
-  <si>
-    <t>12010510493</t>
-  </si>
-  <si>
-    <t>12010501889</t>
-  </si>
-  <si>
-    <t>12010139296</t>
-  </si>
-  <si>
-    <t>12010132953</t>
-  </si>
-  <si>
-    <t>Pharma Plus</t>
-  </si>
-  <si>
-    <t>Pharma Land</t>
-  </si>
-  <si>
-    <t>Harun Eye Foundation And Hospi</t>
-  </si>
-  <si>
-    <t>Mollah Pharmacy</t>
-  </si>
-  <si>
-    <t>Anower Khan Modern Hospital In</t>
-  </si>
-  <si>
-    <t>Sheba Pharmacy</t>
-  </si>
-  <si>
-    <t>Mizan Pharmacy</t>
-  </si>
-  <si>
-    <t>Friends Pharma</t>
-  </si>
-  <si>
-    <t>Apon Medicine Corner</t>
-  </si>
-  <si>
-    <t>S B Medicine Corner</t>
-  </si>
-  <si>
-    <t>Sarker Pharmacy</t>
-  </si>
-  <si>
-    <t>ALIF PHARMACY</t>
-  </si>
-  <si>
-    <t>Keranigonj Pharmacy</t>
-  </si>
-  <si>
-    <t>Jononi Pharmacy</t>
-  </si>
-  <si>
-    <t>Allahardan Medical Hall</t>
-  </si>
-  <si>
-    <t>Belle View Pharma</t>
-  </si>
-  <si>
-    <t>Alfaz Medicine Corner</t>
-  </si>
-  <si>
-    <t>Lazz Pharma 2</t>
-  </si>
-  <si>
-    <t>Fariha Pharmacy</t>
-  </si>
-  <si>
-    <t>Noor Pharmacy 2</t>
-  </si>
-  <si>
-    <t>Sugondha Pharmacy</t>
-  </si>
-  <si>
-    <t>Chattala Pharmacy And Dept Sto</t>
-  </si>
-  <si>
-    <t>Rahmania Pharmacy</t>
-  </si>
-  <si>
-    <t>Pentamet Pharma</t>
-  </si>
-  <si>
-    <t>Woman s Medical College And Ho</t>
-  </si>
-  <si>
-    <t>New Care Medicine</t>
-  </si>
-  <si>
-    <t>Medi Plus Health Care Centre</t>
-  </si>
-  <si>
-    <t>A.AZIZ PHARMA 02</t>
-  </si>
-  <si>
-    <t>Bulbuli Pharmacy</t>
-  </si>
-  <si>
-    <t>Jamuna Pharmacy</t>
-  </si>
-  <si>
-    <t>Green Line Pharma</t>
-  </si>
-  <si>
-    <t>Ella Pharma</t>
-  </si>
-  <si>
-    <t>Bikrampur Pharmacy</t>
-  </si>
-  <si>
-    <t>Anas Pharma</t>
-  </si>
-  <si>
-    <t>Medicine Plus</t>
-  </si>
-  <si>
-    <t>Al Mizan Medicine</t>
-  </si>
-  <si>
-    <t>Prapti Medicin Corner</t>
-  </si>
-  <si>
-    <t>BIO Pharmacy</t>
-  </si>
-  <si>
-    <t>Marium Medicine Center</t>
-  </si>
-  <si>
-    <t>Rokeya Medicine Corner</t>
-  </si>
-  <si>
-    <t>J M I Pharma</t>
-  </si>
-  <si>
-    <t>Life Care Pharma</t>
-  </si>
-  <si>
-    <t>Siam Pharmacy</t>
-  </si>
-  <si>
-    <t>S Pharma</t>
-  </si>
-  <si>
-    <t>Modern Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake City Dental And Medicine </t>
-  </si>
-  <si>
-    <t>Gazi Drugs</t>
-  </si>
-  <si>
-    <t>Taj Pharmacy</t>
-  </si>
-  <si>
-    <t>TAMANNA PHARMACY</t>
-  </si>
-  <si>
-    <t>Ali Medicine Corner</t>
-  </si>
-  <si>
-    <t>Momtaj Trauma Center</t>
-  </si>
-  <si>
-    <t>AL Aksha Pharmacy</t>
-  </si>
-  <si>
-    <t>Best Pharma</t>
-  </si>
-  <si>
-    <t>Janoprio Pharmacy</t>
-  </si>
-  <si>
-    <t>Dewan Medicine Corner</t>
-  </si>
-  <si>
-    <t>New RX Pharma</t>
-  </si>
-  <si>
-    <t>BD Surgical And Pharmacy</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>SAFE PHARMA</t>
-  </si>
-  <si>
-    <t>ANANNA PHARMACY</t>
-  </si>
-  <si>
-    <t>Rafiq Medical Hall</t>
-  </si>
-  <si>
-    <t>Bhuian Pharmacy</t>
-  </si>
-  <si>
-    <t>Neoron Medical Hall</t>
-  </si>
-  <si>
-    <t>Shafiq Drugs</t>
-  </si>
-  <si>
-    <t>Pharma Aid</t>
-  </si>
-  <si>
-    <t>Riya Pharmacy</t>
-  </si>
-  <si>
-    <t>Shah Kabir Pharmacy</t>
-  </si>
-  <si>
-    <t>Apu Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajuk ComplaxUttoraDhaka                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 2 A Road 2 BSector 11 Main Road Uttara                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 12 A Road No 5 Dhanmondi Mirpur RoadDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sankor Plaza More,Sankor,Dhanmondi,Dhaka.                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi 8Dhaka                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanker, Zafrabad, Dhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 Gausul Azam MarketNilkhetDhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road 18 Nikonjo 02                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kha - 2,Nikunjo,Dhaka                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikunzo 2 UttoraDhaka                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co Operative MarketShahbagDhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kacha Bazar,Dakkhin Khan,Uttara,Dhaka.              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co operative Medicine MarketShahabagDhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulbaria Sector 10 Road 01UttaraDhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherbari,Uttarar Khan,Uttara.                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShahbagDhaka                                                </t>
-  </si>
-  <si>
-    <t>Amir Complex, Ka-3/1C, Jagannathpur, Bashundhara Road,Vatara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takia CenterHouse 39 Sector 06Sonargaon Janapath Road       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 36 Sonargon JanopathSector 9 Dhaka                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kacha BazarNear Shah Kabir PharUttara               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House - 49, Road - 16, Sector - 11, Uttara,Dhaka-1230       </t>
-  </si>
-  <si>
-    <t>741 Sat Maszid Road15 No Bus Stand near Medi PhDhanmondi Dha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 B ZigatolaPost Office RoadDhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobodoy Housing Road no 09 House No 01Mohammadpur           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 1 Road 9Sector 1 Jasimuddin RoadUttra Dhaka           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit 2SR Tower Sector 7Uttora Dhaka                         </t>
-  </si>
-  <si>
-    <t>245, Vandari Market, Gawire, Kazi Bari Road, Dakkhin Khan, D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sec # 6,Road #12,Uttara                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ga 9 2 SahazadpurBaddaDhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCHDhanmondiDhaka                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road No - 18, House - 22, Nikunjo - 2                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1141 Quince Garden, Nurerchala, Vatara, Dhaka               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uttara Adunic Medical College HospitalUttaraDhaka           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House-15, Road-5, Nikunjo-2, Khilkhet, Dhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahabag ,Biponi Bitan                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenary More ZigatalaDhaka                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 B East NakhalparaDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/1,BLock- E, Lalmatia                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KhilkatePost Office RoadUttara                              </t>
-  </si>
-  <si>
-    <t>Hannan Plaza Shop 3House 2Sector 9 Road 1 A SoJanaUttara Dha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College GateMirpur RoadMohammadpur                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road 10 Nikunjo 02UttaraDhaka                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagarbari BazarUttaraDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMCH DhanmondiDhaka                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazaribag Dhaka                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazi Super MarketKhilkhetDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 3 H 24MonsurabadDhaka                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solmaid BataraBadda                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House - 4, Garib -E - Newaz Road,Sector - 13,Uttara,Dhaka   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KhilkhetUttoraDhaka                                         </t>
-  </si>
-  <si>
-    <t>56,Block - A,(2nd Floor),Road - 03,Katasur Mohammadpur,Dhaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296 Jafrabad Pulpar Sher E Bangla RoadDhaka                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 6 Wairles Gate MKLDhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aziz Co OprativeMedicine Market ShahabagDhaka               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yousuf MansonUttor Khan Mazar UttoraDhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi Sanker busstandDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 13 Garibe Newaz AvenueSector 13 UttaraDhaka           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollertak Nabin Shangha Road Uttara                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shah kabir mazar road,Azampur kacha Bazar,Uttara            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House # 45,Road # 12,Sector # 13,Uttara,Dhaka.              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 67 Road 01 Ward 06FulbariaUttara                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balur Math Elma Drug House UttaraDhaka                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosjid RoadMollartck Uttora                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulbaria Sector 10 Road 04KhalparUttara                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Tala GarmentsAshkonaUttara                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dakhin Khan BazarUttoraDhaka                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kacha BazarUttaraDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khilkhet BazarKhilkhetUttara Dhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM15                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND55                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0117698        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN-0121028        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-884677     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1071854    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1073272    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075252    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075014    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076537    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076539    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076538    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076170    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075992    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1075713    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076001    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076485    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077086    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077318    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076693    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076853    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077029    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076770    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076872    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077242    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076748    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076890    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077369    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1076715    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077740    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077538    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078000    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078204    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078156    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077474    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078111    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078060    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078169    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077878    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078197    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077551    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077999    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077760    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078203    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077820    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078143    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077539    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078053    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078031    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078002    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077946    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078133    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077855    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077911    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077639    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078216    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077644    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078154    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078163    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077614    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077964    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077501    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077485    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077958    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077584    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077586    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078075    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078087    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1078044    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077401    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1077686    </t>
-  </si>
-  <si>
-    <t>24 Aug 2011</t>
-  </si>
-  <si>
-    <t>28 Aug 2011</t>
-  </si>
-  <si>
-    <t>24 Feb 2020</t>
+    <t>33091102796</t>
+  </si>
+  <si>
+    <t>33091133243</t>
+  </si>
+  <si>
+    <t>33091134918</t>
+  </si>
+  <si>
+    <t>33091101132</t>
+  </si>
+  <si>
+    <t>33091102432</t>
+  </si>
+  <si>
+    <t>90000028053</t>
+  </si>
+  <si>
+    <t>33091134195</t>
+  </si>
+  <si>
+    <t>33091101657</t>
+  </si>
+  <si>
+    <t>33091134924</t>
+  </si>
+  <si>
+    <t>33091106192</t>
+  </si>
+  <si>
+    <t>33091134173</t>
+  </si>
+  <si>
+    <t>90000038200</t>
+  </si>
+  <si>
+    <t>33091106076</t>
+  </si>
+  <si>
+    <t>33091107037</t>
+  </si>
+  <si>
+    <t>90000013666</t>
+  </si>
+  <si>
+    <t>33091134607</t>
+  </si>
+  <si>
+    <t>33091002760</t>
+  </si>
+  <si>
+    <t>33091107153</t>
+  </si>
+  <si>
+    <t>33091134570</t>
+  </si>
+  <si>
+    <t>33091002347</t>
+  </si>
+  <si>
+    <t>33091100434</t>
+  </si>
+  <si>
+    <t>33091134908</t>
+  </si>
+  <si>
+    <t>33091132158</t>
+  </si>
+  <si>
+    <t>90000008142</t>
+  </si>
+  <si>
+    <t>33091100111</t>
+  </si>
+  <si>
+    <t>33091000135</t>
+  </si>
+  <si>
+    <t>33091102585</t>
+  </si>
+  <si>
+    <t>90000032166</t>
+  </si>
+  <si>
+    <t>33091134396</t>
+  </si>
+  <si>
+    <t>33091101746</t>
+  </si>
+  <si>
+    <t>33091103904</t>
+  </si>
+  <si>
+    <t>33091136099</t>
+  </si>
+  <si>
+    <t>33091133751</t>
+  </si>
+  <si>
+    <t>33091101518</t>
+  </si>
+  <si>
+    <t>33091134826</t>
+  </si>
+  <si>
+    <t>33091100483</t>
+  </si>
+  <si>
+    <t>90000006494</t>
+  </si>
+  <si>
+    <t>33091002340</t>
+  </si>
+  <si>
+    <t>90000012585</t>
+  </si>
+  <si>
+    <t>33091000027</t>
+  </si>
+  <si>
+    <t>90000006595</t>
+  </si>
+  <si>
+    <t>33091001759</t>
+  </si>
+  <si>
+    <t>33091135258</t>
+  </si>
+  <si>
+    <t>33091002353</t>
+  </si>
+  <si>
+    <t>33091135420</t>
+  </si>
+  <si>
+    <t>33091132072</t>
+  </si>
+  <si>
+    <t>33091102815</t>
+  </si>
+  <si>
+    <t>33091102446</t>
+  </si>
+  <si>
+    <t>33091134356</t>
+  </si>
+  <si>
+    <t>33091100157</t>
+  </si>
+  <si>
+    <t>90000011453</t>
+  </si>
+  <si>
+    <t>33091001955</t>
+  </si>
+  <si>
+    <t>33091135443</t>
+  </si>
+  <si>
+    <t>33091101399</t>
+  </si>
+  <si>
+    <t>90000015245</t>
+  </si>
+  <si>
+    <t>33091002346</t>
+  </si>
+  <si>
+    <t>90000009922</t>
+  </si>
+  <si>
+    <t>33091100564</t>
+  </si>
+  <si>
+    <t>90000022254</t>
+  </si>
+  <si>
+    <t>90000002609</t>
+  </si>
+  <si>
+    <t>33091101637</t>
+  </si>
+  <si>
+    <t>33091000206</t>
+  </si>
+  <si>
+    <t>33091100756</t>
+  </si>
+  <si>
+    <t>33091103694</t>
+  </si>
+  <si>
+    <t>90000030110</t>
+  </si>
+  <si>
+    <t>33091101121</t>
+  </si>
+  <si>
+    <t>90000015242</t>
+  </si>
+  <si>
+    <t>90000042118</t>
+  </si>
+  <si>
+    <t>33091000024</t>
+  </si>
+  <si>
+    <t>33091135107</t>
+  </si>
+  <si>
+    <t>33091000061</t>
+  </si>
+  <si>
+    <t>33091101790</t>
+  </si>
+  <si>
+    <t>33091100119</t>
+  </si>
+  <si>
+    <t>33091103949</t>
+  </si>
+  <si>
+    <t>90000028172</t>
+  </si>
+  <si>
+    <t>33091100856</t>
+  </si>
+  <si>
+    <t>33091102315</t>
+  </si>
+  <si>
+    <t>33091134283</t>
+  </si>
+  <si>
+    <t>33091107427</t>
+  </si>
+  <si>
+    <t>33091000058</t>
+  </si>
+  <si>
+    <t>90000016770</t>
+  </si>
+  <si>
+    <t>33091101095</t>
+  </si>
+  <si>
+    <t>33091134468</t>
+  </si>
+  <si>
+    <t>33091101252</t>
+  </si>
+  <si>
+    <t>33091133646</t>
+  </si>
+  <si>
+    <t>33091132078</t>
+  </si>
+  <si>
+    <t>90000022645</t>
+  </si>
+  <si>
+    <t>33091100167</t>
+  </si>
+  <si>
+    <t>90000041846</t>
+  </si>
+  <si>
+    <t>90000037793</t>
+  </si>
+  <si>
+    <t>33091101071</t>
+  </si>
+  <si>
+    <t>33091135282</t>
+  </si>
+  <si>
+    <t>33091100423</t>
+  </si>
+  <si>
+    <t>33091103999</t>
+  </si>
+  <si>
+    <t>33091000064</t>
+  </si>
+  <si>
+    <t>90000015631</t>
+  </si>
+  <si>
+    <t>33091134202</t>
+  </si>
+  <si>
+    <t>90000014576</t>
+  </si>
+  <si>
+    <t>33091102720</t>
+  </si>
+  <si>
+    <t>90000042673</t>
+  </si>
+  <si>
+    <t>33091101608</t>
+  </si>
+  <si>
+    <t>33091135831</t>
+  </si>
+  <si>
+    <t>90000029384</t>
+  </si>
+  <si>
+    <t>33091101373</t>
+  </si>
+  <si>
+    <t>33091107076</t>
+  </si>
+  <si>
+    <t>33091100839</t>
+  </si>
+  <si>
+    <t>33091136178</t>
+  </si>
+  <si>
+    <t>90000044143</t>
+  </si>
+  <si>
+    <t>33091101084</t>
+  </si>
+  <si>
+    <t>90000041218</t>
+  </si>
+  <si>
+    <t>Shoma Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Irin Pharmacy</t>
+  </si>
+  <si>
+    <t>Golden Surgical And Medicin</t>
+  </si>
+  <si>
+    <t>Badsha Medical Store</t>
+  </si>
+  <si>
+    <t>Paglarpir Pharmacy</t>
+  </si>
+  <si>
+    <t>Mousumi Medicine Corner</t>
+  </si>
+  <si>
+    <t>S D R Pharmacy</t>
+  </si>
+  <si>
+    <t>Sebok Medical Store</t>
+  </si>
+  <si>
+    <t>Ripon Pharmacy</t>
+  </si>
+  <si>
+    <t>Sujon Pharmacy</t>
+  </si>
+  <si>
+    <t>Sejuti Pharmacy</t>
+  </si>
+  <si>
+    <t>Update Medicine</t>
+  </si>
+  <si>
+    <t>Kollan Pharmacy</t>
+  </si>
+  <si>
+    <t>Pulse Pharmacy</t>
+  </si>
+  <si>
+    <t>Swapon Surgical</t>
+  </si>
+  <si>
+    <t>Sotota Pharmecy</t>
+  </si>
+  <si>
+    <t>Setu Pharmacy</t>
+  </si>
+  <si>
+    <t>Durgapur Pharmacy</t>
+  </si>
+  <si>
+    <t>Rahman Medical Store</t>
+  </si>
+  <si>
+    <t>Medicin Corner</t>
+  </si>
+  <si>
+    <t>Sagor Pharmacy</t>
+  </si>
+  <si>
+    <t>Dristi Pharmacy</t>
+  </si>
+  <si>
+    <t>Dewan Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezim Pharmacy </t>
+  </si>
+  <si>
+    <t>Modina Medical Store</t>
+  </si>
+  <si>
+    <t>Sardar Medical</t>
+  </si>
+  <si>
+    <t>Joy Medicin Corner</t>
+  </si>
+  <si>
+    <t>Nahar Medical Store</t>
+  </si>
+  <si>
+    <t>Ranju Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Monoranjon Pharmacy</t>
+  </si>
+  <si>
+    <t>Habiba Pharmacy</t>
+  </si>
+  <si>
+    <t>Sohidul Pharmacy</t>
+  </si>
+  <si>
+    <t>G M Pharmacy</t>
+  </si>
+  <si>
+    <t>Habib Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Edrish pharmacy</t>
+  </si>
+  <si>
+    <t>Disha Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahid Pharmacy </t>
+  </si>
+  <si>
+    <t>Mina Medical Hall</t>
+  </si>
+  <si>
+    <t>Mosharraf Medical Store</t>
+  </si>
+  <si>
+    <t>Alam Medical Store</t>
+  </si>
+  <si>
+    <t>Sheikh  Abdullah  Medicine</t>
+  </si>
+  <si>
+    <t>Moon Medical Store</t>
+  </si>
+  <si>
+    <t>New Madicare Pharmacy</t>
+  </si>
+  <si>
+    <t>Ghosh Pharmacy</t>
+  </si>
+  <si>
+    <t>Medicin Plase</t>
+  </si>
+  <si>
+    <t>Shamol Pharmacy</t>
+  </si>
+  <si>
+    <t>Life Phamacy</t>
+  </si>
+  <si>
+    <t>Shah Pharmacy</t>
+  </si>
+  <si>
+    <t>Sima Medical Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anik Pharmacy </t>
+  </si>
+  <si>
+    <t>Brothers Medical Store</t>
+  </si>
+  <si>
+    <t>Niloy Pharmacy</t>
+  </si>
+  <si>
+    <t>Roky Medicin House</t>
+  </si>
+  <si>
+    <t>Rabeya Pharmacy</t>
+  </si>
+  <si>
+    <t>Rana Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runa Pharmacy </t>
+  </si>
+  <si>
+    <t>Afsana Medical Store</t>
+  </si>
+  <si>
+    <t>M S Doya Pharmacy</t>
+  </si>
+  <si>
+    <t>Desh Pharmacy</t>
+  </si>
+  <si>
+    <t>Pranto Medical Store</t>
+  </si>
+  <si>
+    <t>Sen Clinic</t>
+  </si>
+  <si>
+    <t>Amin Medical Store</t>
+  </si>
+  <si>
+    <t>Kona Pharmacy</t>
+  </si>
+  <si>
+    <t>Anoando Medicine Corner</t>
+  </si>
+  <si>
+    <t>Dipa Medical Store</t>
+  </si>
+  <si>
+    <t>Kazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Polly Medicine Corner</t>
+  </si>
+  <si>
+    <t>Sonali Medical Store</t>
+  </si>
+  <si>
+    <t>Rashed Pharmacy</t>
+  </si>
+  <si>
+    <t>Shodesh Medical Store</t>
+  </si>
+  <si>
+    <t>Brothers Pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Medical Store</t>
+  </si>
+  <si>
+    <t>Raju Medical Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Nabium Pharmacy </t>
+  </si>
+  <si>
+    <t>Maa Babar Dowa</t>
+  </si>
+  <si>
+    <t>Tarif Medical Hall</t>
+  </si>
+  <si>
+    <t>Tayan Pharmacy</t>
+  </si>
+  <si>
+    <t>Sabuz Medical Hall</t>
+  </si>
+  <si>
+    <t>Town Pharmacy</t>
+  </si>
+  <si>
+    <t>Adarsho Pharmacy</t>
+  </si>
+  <si>
+    <t>Sulov Pharmacy</t>
+  </si>
+  <si>
+    <t>Sharmin Pharmacy</t>
+  </si>
+  <si>
+    <t>Shirin Medical Store</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Manoshi Medicine</t>
+  </si>
+  <si>
+    <t>Tasnim Medicine Corner</t>
+  </si>
+  <si>
+    <t>Radha Gobindha Medical Store</t>
+  </si>
+  <si>
+    <t>Dr.Putul Medical Store</t>
+  </si>
+  <si>
+    <t>Shifa Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Shah Alam Clinic</t>
+  </si>
+  <si>
+    <t>Mim Pharmacy</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Medical Store</t>
+  </si>
+  <si>
+    <t>Maa Moni Oushad Ghor</t>
+  </si>
+  <si>
+    <t>Minoti Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Medicine Corner</t>
+  </si>
+  <si>
+    <t>New Nirala Aushod Ghar</t>
+  </si>
+  <si>
+    <t>SHORNA MEDICAL STORE</t>
+  </si>
+  <si>
+    <t>Mahi Medical Store</t>
+  </si>
+  <si>
+    <t>Haragach Pharmacy</t>
+  </si>
+  <si>
+    <t>Mita Medical Store</t>
+  </si>
+  <si>
+    <t>Esmail Pharmacy</t>
+  </si>
+  <si>
+    <t>Mizan Medical Store</t>
+  </si>
+  <si>
+    <t>Sadak Pharmacy</t>
+  </si>
+  <si>
+    <t>Nahid Medicin Corner</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Mokbul Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Rajerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nageswari Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Care Clinic Chek Post Rangpur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazer Road Ulipur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paglarpir Paglarpir                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulipur Bazar, Kurigram                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziz Super Market Station Road Rangpur                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand Gaibandha                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bdaiakhali,Gaibandha                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatibandha Hariakuti 2 KM From Dangirhat Paglapir           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borokhata Hatibandha Lalmonirhat                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gongachara Bazar,Rangpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puraton Bazar Lalmonirhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazzar Road Nageswari Kurigram                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap, Near Microlab, Rangpur.                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourobazar Kurigram                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangachara Gangachara                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durgapur Durgapur Durgapur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohiskhocha Lalmonirhat                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazer Road Bhurangamari                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgach Bazer Chilmari                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowra Bazar Kurigram                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upajilla Get Pirgacha                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghugurhat.Fullbari                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kachari Bazar Gaibandha                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shathi bari, Mithapukur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap Rangpur                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonarpara Bazar,Gaibandha                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamta Chamta Lalmonirhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matherhat Mithapukur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohendranagar Lalmonirhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepa Modupur Kawnia Rangpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votemari Lalmonirhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satmatha Mahigonj Rangpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazirhat Lalmonirhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burirhat Gongachora                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowduryhat.                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazer Road Nageswari                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kachari Bazar, Gaibandha.                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statiion Road                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Road Gaibandha                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojid Market Kurigram                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formerly Nobin Pharmacy Bodargonj Rangpur                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saddam moor Bhrungamari                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurigram                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saddam More, Bhurungamari                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecorchali Bazzar Paglapir                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiknar Bazar,Nagbari Sadullahpur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naldanga Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haragach Haragach                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Para Gaibandha                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Popular Diagonastic Center Dhap Jail Road Rangpur      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chander Bazar,Sadullapur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materhat.Sundargonj                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nangra Bazar Gaibandha                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puratan Poshu Hospital Road,Kurigram                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Road                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laximipur Sadullahpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazar Road Nagerswari kurigram                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laxmipur Bazar Sadullahpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laxmipur Sadullahpur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Road,Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazar Road Bhurangamari                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Hospital Road,South Gate                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miah Mondoler Bazar,Bodlagari,Sadullapur,Gaibandha          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D B Road Gaibandha                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Baparihat Nageswari                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Mosqe Road Bazzar Road Kurigram                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Bhurongamari                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purbapara Gaibandha                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solkur Bazar Kurigram                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap.Jail Road,Rangpur                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatgram Sadullahpur                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betgari Gangachara Paglapir                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betgari Paglapir Rangpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paglapir Paglapir Rangpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalibari Road Kurigram                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Road,Patgram                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirgacha Pirgacha                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rani Gonj Bazzar Chilmari Kurigram                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jummarhat Ulipur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colladge Road Sundorgonj Gaibandha                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Road,Rajarhat,Kurigram                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachpir Sundargonj                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bypas More,Kottoli,Patgram                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanerhat Bazar,Pirgonj                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razarhat Rajarhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polashbari Polashbari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazer Road Chilmari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dino Bazar Razar Hat Kurigram                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazar Road Ulipur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zim Zim Super Merket ,Polashbari                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Post More Rangpur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aowliarhat,Patgram                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Approch Road Rangpur                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL MARKET, PALASHBARI.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojumder hat Sundargonj                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Pash More,Dahogram Road, Patgram                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heigh School Road Polashbari                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonesh Pur Rangpur                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandabari Pirgonj                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Pirgong                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Bazar Rangpur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajarhat Bazar, Rajarhat                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R K Road Check Post Rangpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simanto Bazer (Chamti Bazar), Patgram, Lalmonirhat          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS27                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK104                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK85                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-372481     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-471878     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472391     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474130     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-476189     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-479996     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-481814     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482255     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482125     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482021     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482579     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-482853     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483439     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483568     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483567     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483939     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483736     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483604     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-483857     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484243     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484360     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484377     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484370     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484408     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484291     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484787     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484614     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484652     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484657     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484434     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484825     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484500     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484595     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484526     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484568     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484716     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484681     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485221     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485219     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485257     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484916     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485241     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485209     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485297     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484859     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485280     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484911     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485298     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485099     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485218     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484840     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484851     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485300     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485207     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484951     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484844     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485155     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485283     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485156     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484917     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484862     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485030     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484864     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484883     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485132     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485023     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485158     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484830     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485147     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485033     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485136     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484863     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485113     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484990     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-484955     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485231     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485009     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485020     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485116     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485268     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485666     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485653     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485661     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485310     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485457     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485574     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485631     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485617     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485514     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485469     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485398     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485639     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485452     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485411     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485505     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485445     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485651     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485351     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485552     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485636     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485419     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485361     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485649     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485386     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485543     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485409     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-485556     </t>
+  </si>
+  <si>
+    <t>29 Feb 2020</t>
+  </si>
+  <si>
+    <t>01 Oct 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>10 Oct 2020</t>
+  </si>
+  <si>
+    <t>18 Oct 2020</t>
   </si>
   <si>
     <t>21 Oct 2020</t>
@@ -967,6 +1480,12 @@
     <t>22 Oct 2020</t>
   </si>
   <si>
+    <t>23 Oct 2020</t>
+  </si>
+  <si>
+    <t>24 Oct 2020</t>
+  </si>
+  <si>
     <t>25 Oct 2020</t>
   </si>
   <si>
@@ -977,6 +1496,12 @@
   </si>
   <si>
     <t>28 Oct 2020</t>
+  </si>
+  <si>
+    <t>29 Oct 2020</t>
+  </si>
+  <si>
+    <t>30 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,25 +1911,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>480</v>
       </c>
       <c r="H2">
-        <v>3357</v>
+        <v>248</v>
       </c>
       <c r="I2">
-        <v>8081.55</v>
+        <v>1727.47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1415,25 +1940,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
       <c r="H3">
-        <v>3353</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>10895.59</v>
+        <v>2116.46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1444,25 +1969,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
       <c r="H4">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>21561.73</v>
+        <v>2404.83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1473,25 +1998,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>5237</v>
+        <v>9079.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1502,25 +2027,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>484</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>9240</v>
+        <v>2000.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1531,25 +2056,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>485</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>2338.96</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1560,25 +2085,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>486</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>500</v>
+        <v>229.89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1589,25 +2114,25 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>487</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>9738.379999999999</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1618,25 +2143,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>487</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>4400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1647,25 +2172,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
+        <v>487</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>4400</v>
+        <v>1778.85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1676,25 +2201,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>1890.76</v>
+        <v>2536.6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1705,25 +2230,25 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>1618.64</v>
+        <v>2460.55</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1731,28 +2256,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>1520</v>
+        <v>1448.46</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1760,28 +2285,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>1227.8</v>
+        <v>509.52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1789,28 +2314,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>581.64</v>
+        <v>2089.56</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1818,28 +2343,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>9842</v>
+        <v>3545.75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1847,28 +2372,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>8800</v>
+        <v>2526.09</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1876,28 +2401,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>342</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>7240.71</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1905,28 +2430,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="F20" t="s">
-        <v>261</v>
+        <v>383</v>
       </c>
       <c r="G20" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>6637.92</v>
+        <v>1225.47</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1934,28 +2459,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>5252.89</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1963,28 +2488,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>4757.66</v>
+        <v>219.69</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1992,28 +2517,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>3577.52</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2021,28 +2546,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="G24" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>1714.39</v>
+        <v>3278.48</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2050,28 +2575,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="G25" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>3000.32</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2079,28 +2604,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="G26" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>650.99</v>
+        <v>720.03</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2108,28 +2633,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="G27" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>490</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2137,28 +2662,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="G28" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>272.78</v>
+        <v>446.85</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2166,28 +2691,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>12085.48</v>
+        <v>10464.3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2195,28 +2720,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>9430</v>
+        <v>3660.03</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2224,28 +2749,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="G31" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>9169.190000000001</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2253,28 +2778,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="G32" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>8708.530000000001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2282,28 +2807,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="G33" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>8242.32</v>
+        <v>1406.45</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2311,28 +2836,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>7922.63</v>
+        <v>1244.57</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2340,28 +2865,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>7401.04</v>
+        <v>1171.33</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2369,28 +2894,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>7250.33</v>
+        <v>1000.63</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2398,28 +2923,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="G37" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>7156.99</v>
+        <v>1000.37</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2427,28 +2952,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="F38" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>6189.43</v>
+        <v>980</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2456,28 +2981,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>402</v>
       </c>
       <c r="G39" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>5671.67</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2485,28 +3010,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="E40" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>5484.8</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2514,28 +3039,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>5235.32</v>
+        <v>26174.21</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2543,28 +3068,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="F42" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>4721.38</v>
+        <v>24069.44</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2572,28 +3097,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>4294.96</v>
+        <v>20095.32</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2601,28 +3126,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>3696.22</v>
+        <v>18995.03</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2630,28 +3155,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="G45" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>3656.05</v>
+        <v>17433.39</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2659,28 +3184,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="F46" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>3486.59</v>
+        <v>16496.59</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2688,28 +3213,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>3252.18</v>
+        <v>6631.67</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2717,28 +3242,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>3243.47</v>
+        <v>5929.7</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2746,28 +3271,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>3062.69</v>
+        <v>5310.48</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2775,28 +3300,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>3043.57</v>
+        <v>5000.33</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2804,28 +3329,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="G51" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>2854.85</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2833,28 +3358,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>415</v>
       </c>
       <c r="G52" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>2800</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2862,28 +3387,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>2739.87</v>
+        <v>4000.01</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2891,28 +3416,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>2703.05</v>
+        <v>3437.94</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2920,28 +3445,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>2616.05</v>
+        <v>3233.03</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2949,28 +3474,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>2355.91</v>
+        <v>3100.67</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2978,28 +3503,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>2235.37</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3007,28 +3532,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="F58" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="G58" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>2188.21</v>
+        <v>3075.94</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3036,28 +3561,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>2179.66</v>
+        <v>2677.8</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3065,28 +3590,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="F60" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>1892.16</v>
+        <v>2489.44</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3094,28 +3619,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="G61" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>1666.57</v>
+        <v>2342.98</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3123,28 +3648,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>303</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>1588.07</v>
+        <v>2336.08</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3152,28 +3677,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="G63" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>1252.14</v>
+        <v>2301.06</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3181,28 +3706,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="F64" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="G64" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>1157.32</v>
+        <v>2261.87</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3210,28 +3735,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="G65" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>1144.07</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3239,28 +3764,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="F66" t="s">
-        <v>307</v>
+        <v>429</v>
       </c>
       <c r="G66" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>1082.47</v>
+        <v>2031.15</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3268,28 +3793,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="G67" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1064.89</v>
+        <v>1880.01</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3297,28 +3822,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
-        <v>309</v>
+        <v>431</v>
       </c>
       <c r="G68" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>968.1</v>
+        <v>1832.36</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3326,28 +3851,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>730.61</v>
+        <v>1595.66</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3355,28 +3880,1362 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" t="s">
+        <v>494</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>1268.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>494</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>1221.61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" t="s">
+        <v>494</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" t="s">
+        <v>436</v>
+      </c>
+      <c r="G73" t="s">
+        <v>494</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>1072.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>288</v>
+      </c>
+      <c r="E74" t="s">
+        <v>357</v>
+      </c>
+      <c r="F74" t="s">
+        <v>437</v>
+      </c>
+      <c r="G74" t="s">
+        <v>494</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>1000.18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" t="s">
+        <v>289</v>
+      </c>
+      <c r="E75" t="s">
+        <v>337</v>
+      </c>
+      <c r="F75" t="s">
+        <v>438</v>
+      </c>
+      <c r="G75" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>946.71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" t="s">
+        <v>494</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77" t="s">
+        <v>440</v>
+      </c>
+      <c r="G77" t="s">
+        <v>494</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" t="s">
+        <v>292</v>
+      </c>
+      <c r="E78" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>500.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
+        <v>293</v>
+      </c>
+      <c r="E79" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" t="s">
+        <v>442</v>
+      </c>
+      <c r="G79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>500.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" t="s">
+        <v>443</v>
+      </c>
+      <c r="G80" t="s">
+        <v>494</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E81" t="s">
+        <v>334</v>
+      </c>
+      <c r="F81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G81" t="s">
+        <v>494</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>261.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" t="s">
+        <v>357</v>
+      </c>
+      <c r="F82" t="s">
+        <v>445</v>
+      </c>
+      <c r="G82" t="s">
+        <v>494</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>297</v>
+      </c>
+      <c r="E83" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" t="s">
+        <v>446</v>
+      </c>
+      <c r="G83" t="s">
+        <v>494</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>150.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" t="s">
+        <v>447</v>
+      </c>
+      <c r="G84" t="s">
+        <v>494</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>80.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
+        <v>299</v>
+      </c>
+      <c r="E85" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" t="s">
+        <v>448</v>
+      </c>
+      <c r="G85" t="s">
+        <v>494</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>65.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" t="s">
+        <v>342</v>
+      </c>
+      <c r="F86" t="s">
+        <v>449</v>
+      </c>
+      <c r="G86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s">
+        <v>338</v>
+      </c>
+      <c r="F87" t="s">
+        <v>450</v>
+      </c>
+      <c r="G87" t="s">
+        <v>495</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" t="s">
+        <v>347</v>
+      </c>
+      <c r="F88" t="s">
+        <v>451</v>
+      </c>
+      <c r="G88" t="s">
+        <v>495</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>6777.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s">
+        <v>303</v>
+      </c>
+      <c r="E89" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" t="s">
+        <v>452</v>
+      </c>
+      <c r="G89" t="s">
+        <v>495</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>6293.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" t="s">
+        <v>333</v>
+      </c>
+      <c r="F90" t="s">
+        <v>453</v>
+      </c>
+      <c r="G90" t="s">
+        <v>495</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>6081.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" t="s">
+        <v>359</v>
+      </c>
+      <c r="F91" t="s">
+        <v>454</v>
+      </c>
+      <c r="G91" t="s">
+        <v>495</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>5045.28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" t="s">
+        <v>360</v>
+      </c>
+      <c r="F92" t="s">
+        <v>455</v>
+      </c>
+      <c r="G92" t="s">
+        <v>495</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>4600.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" t="s">
+        <v>456</v>
+      </c>
+      <c r="G93" t="s">
+        <v>495</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>4355.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94" t="s">
+        <v>359</v>
+      </c>
+      <c r="F94" t="s">
+        <v>457</v>
+      </c>
+      <c r="G94" t="s">
+        <v>495</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>4141.66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" t="s">
+        <v>308</v>
+      </c>
+      <c r="E95" t="s">
+        <v>338</v>
+      </c>
+      <c r="F95" t="s">
+        <v>458</v>
+      </c>
+      <c r="G95" t="s">
+        <v>495</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>3899.59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" t="s">
+        <v>361</v>
+      </c>
+      <c r="F96" t="s">
+        <v>459</v>
+      </c>
+      <c r="G96" t="s">
+        <v>495</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>3660.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" t="s">
+        <v>330</v>
+      </c>
+      <c r="F97" t="s">
+        <v>460</v>
+      </c>
+      <c r="G97" t="s">
+        <v>495</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" t="s">
+        <v>461</v>
+      </c>
+      <c r="G98" t="s">
+        <v>495</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>2900.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" t="s">
+        <v>346</v>
+      </c>
+      <c r="F99" t="s">
+        <v>462</v>
+      </c>
+      <c r="G99" t="s">
+        <v>495</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2849.97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" t="s">
+        <v>330</v>
+      </c>
+      <c r="F100" t="s">
+        <v>463</v>
+      </c>
+      <c r="G100" t="s">
+        <v>495</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>2714.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" t="s">
+        <v>464</v>
+      </c>
+      <c r="G101" t="s">
+        <v>495</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" t="s">
+        <v>465</v>
+      </c>
+      <c r="G102" t="s">
+        <v>495</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
         <v>211</v>
       </c>
-      <c r="E70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F70" t="s">
-        <v>311</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="D103" t="s">
+        <v>316</v>
+      </c>
+      <c r="E103" t="s">
+        <v>332</v>
+      </c>
+      <c r="F103" t="s">
+        <v>466</v>
+      </c>
+      <c r="G103" t="s">
+        <v>495</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>2443.19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" t="s">
+        <v>338</v>
+      </c>
+      <c r="F104" t="s">
+        <v>467</v>
+      </c>
+      <c r="G104" t="s">
+        <v>495</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>2264.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>318</v>
+      </c>
+      <c r="E105" t="s">
+        <v>354</v>
+      </c>
+      <c r="F105" t="s">
+        <v>468</v>
+      </c>
+      <c r="G105" t="s">
+        <v>495</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>2029.19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>362</v>
+      </c>
+      <c r="F106" t="s">
+        <v>469</v>
+      </c>
+      <c r="G106" t="s">
+        <v>495</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" t="s">
         <v>320</v>
       </c>
-      <c r="H70">
+      <c r="E107" t="s">
+        <v>359</v>
+      </c>
+      <c r="F107" t="s">
+        <v>470</v>
+      </c>
+      <c r="G107" t="s">
+        <v>495</v>
+      </c>
+      <c r="H107">
         <v>4</v>
       </c>
-      <c r="I70">
-        <v>528.05</v>
+      <c r="I107">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" t="s">
+        <v>338</v>
+      </c>
+      <c r="F108" t="s">
+        <v>471</v>
+      </c>
+      <c r="G108" t="s">
+        <v>495</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>1675.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" t="s">
+        <v>363</v>
+      </c>
+      <c r="F109" t="s">
+        <v>472</v>
+      </c>
+      <c r="G109" t="s">
+        <v>495</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>323</v>
+      </c>
+      <c r="E110" t="s">
+        <v>360</v>
+      </c>
+      <c r="F110" t="s">
+        <v>473</v>
+      </c>
+      <c r="G110" t="s">
+        <v>495</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>999.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>324</v>
+      </c>
+      <c r="E111" t="s">
+        <v>364</v>
+      </c>
+      <c r="F111" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" t="s">
+        <v>495</v>
+      </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>941.66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" t="s">
+        <v>364</v>
+      </c>
+      <c r="F112" t="s">
+        <v>475</v>
+      </c>
+      <c r="G112" t="s">
+        <v>495</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
+        <v>932.3099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E113" t="s">
+        <v>350</v>
+      </c>
+      <c r="F113" t="s">
+        <v>476</v>
+      </c>
+      <c r="G113" t="s">
+        <v>495</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
+        <v>473.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" t="s">
+        <v>477</v>
+      </c>
+      <c r="G114" t="s">
+        <v>495</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" t="s">
+        <v>332</v>
+      </c>
+      <c r="F115" t="s">
+        <v>478</v>
+      </c>
+      <c r="G115" t="s">
+        <v>495</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D116" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" t="s">
+        <v>338</v>
+      </c>
+      <c r="F116" t="s">
+        <v>479</v>
+      </c>
+      <c r="G116" t="s">
+        <v>495</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
